--- a/biology/Histoire de la zoologie et de la botanique/Clément_Bressou/Clément_Bressou.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Clément_Bressou/Clément_Bressou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9ment_Bressou</t>
+          <t>Clément_Bressou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clément, Jean, Pierre, François, Emmanuel Bressou est un vétérinaire français, né le 22 février 1887 à Montauban et décédé le 31 janvier 1979 à Toulouse, qui fut professeur d’anatomie à l’École nationale vétérinaire de Toulouse (1920-1926), puis à l'École nationale vétérinaire d’Alfort (1926-1957) et directeur de cette École pendant vingt-quatre ans (1934-1957). En tant que naturaliste, il a joué un rôle important dans la protection de la nature en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9ment_Bressou</t>
+          <t>Clément_Bressou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clément Bressou est né le 22 février 1887 à Montauban, dans une famille d’artisans, septième enfant de François Bressou et de Marguerite, Zoé, née Bourdelles, dont tous les enfants, sauf lui, moururent en bas âge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clément Bressou est né le 22 février 1887 à Montauban, dans une famille d’artisans, septième enfant de François Bressou et de Marguerite, Zoé, née Bourdelles, dont tous les enfants, sauf lui, moururent en bas âge.
 Il fit ses études secondaires au collège de Castelsarrasin, en élève brillant et sportif, capitaine de l’équipe de rugby.
-Au cours de sa scolarité à l’École nationale vétérinaire de Toulouse (1906-1910), « il se découvrit une véritable passion pour les sciences anatomiques »[1], il fréquenta les milieux littéraires et artistiques de Toulouse, et participa activement à la vie culturelle et sportive de l’École, démontrant, déjà, « ses prodigieuses qualités d’animateur »[2], notamment comme président du Cercle des élèves.
+Au cours de sa scolarité à l’École nationale vétérinaire de Toulouse (1906-1910), « il se découvrit une véritable passion pour les sciences anatomiques », il fréquenta les milieux littéraires et artistiques de Toulouse, et participa activement à la vie culturelle et sportive de l’École, démontrant, déjà, « ses prodigieuses qualités d’animateur », notamment comme président du Cercle des élèves.
 À la sortie de l’École de Toulouse, il répondit favorablement à la sollicitation de son maître, le professeur Lucien Montané, professeur d’anatomie, et fut engagé comme chef de travaux.
 Parallèlement, il accomplit son service militaire (1910-1912), puis fut mobilisé en août 1914 pour plus de quatre ans.
 En 1919, il devint professeur chargé de la chaire d’anatomie descriptive, de tératologie et d’extérieur des animaux à l’École nationale vétérinaire de Toulouse, succédant à son maître Lucien Montané ; en 1926, il devint titulaire de la chaire d’anatomie descriptive, systématique et topographique de l’École nationale vétérinaire d’Alfort, rendue vacante par le départ d'Édouard Bourdelle, appelé au Muséum national d'histoire naturelle à Paris.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A9ment_Bressou</t>
+          <t>Clément_Bressou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,56 +562,235 @@
           <t>Œuvre et réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Clément Bressou œuvra dans différents domaines avec la même énergie apparemment inépuisable : l’enseignement, la direction de l’École d’Alfort, le développement et l’histoire de la profession vétérinaire ainsi que la protection de la nature.
-L'enseignant
-En tant qu’enseignant, il a marqué l’esprit des étudiants de dizaines de promotions. Il savait transmettre sa passion de l’anatomie en alliant des dons d’orateur et de dessinateur à une mémoire extraordinaire[1] « Il savait enseigner, démontrer et convaincre de ses gestes persuasifs et de sa voix chaude où quelques accents rocailleux issus d’un terroir montagnard ne rompaient pas la mélodie généreuse des hommes du Midi, et bien au contraire lui donnaient vigueur »[3]. « Surchargé de travail, il commençait à parler dès l’entrée dans l’amphithéâtre. Il développait alors une description claire, précise, complète, qui n’allait plus s’arrêter qu’à sa sortie. Au talent du verbe, il associait la sûreté et l’habileté des gestes, il accompagnait son discours de dessins dont il recouvrait progressivement les six grands tableaux mis à sa disposition »[4].
-Tout en poursuivant le développement des points de son cours, il continuait à dessiner sans jamais rester immobile une seconde. « Il grimpait sur une chaise pour commencer son trait et ce trait ne vacillait pas jusqu’au moment où il terminait accroupi. Ah ! Ces splendeurs en craies multicolores que l’on regardait, fasciné, avant l’horrible massacre de l’éponge »[5].
-Ouvrages et publications
-Les travaux de Clément Bressou dans le domaine de l’anatomie l’ont conduit à effectuer de nombreuses publications, colligées dans la thèse de Plassard[1] : 32 traitant d’anatomie normale, 13 d’anomalies et de tératologie, et plusieurs ouvrages[6],[7],[8],[9],[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre et réalisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'enseignant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant qu’enseignant, il a marqué l’esprit des étudiants de dizaines de promotions. Il savait transmettre sa passion de l’anatomie en alliant des dons d’orateur et de dessinateur à une mémoire extraordinaire « Il savait enseigner, démontrer et convaincre de ses gestes persuasifs et de sa voix chaude où quelques accents rocailleux issus d’un terroir montagnard ne rompaient pas la mélodie généreuse des hommes du Midi, et bien au contraire lui donnaient vigueur ». « Surchargé de travail, il commençait à parler dès l’entrée dans l’amphithéâtre. Il développait alors une description claire, précise, complète, qui n’allait plus s’arrêter qu’à sa sortie. Au talent du verbe, il associait la sûreté et l’habileté des gestes, il accompagnait son discours de dessins dont il recouvrait progressivement les six grands tableaux mis à sa disposition ».
+Tout en poursuivant le développement des points de son cours, il continuait à dessiner sans jamais rester immobile une seconde. « Il grimpait sur une chaise pour commencer son trait et ce trait ne vacillait pas jusqu’au moment où il terminait accroupi. Ah ! Ces splendeurs en craies multicolores que l’on regardait, fasciné, avant l’horrible massacre de l’éponge ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre et réalisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages et publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Clément Bressou dans le domaine de l’anatomie l’ont conduit à effectuer de nombreuses publications, colligées dans la thèse de Plassard : 32 traitant d’anatomie normale, 13 d’anomalies et de tératologie, et plusieurs ouvrages.
 C. Bressou introduisit des méthodes nouvelles dans l’enseignement de l’anatomie, telles l’usage de la radiographie. Avec  Bourdelle, Didier et Rode, il fonda en 1936 la revue Mammalia. Soucieux de l’exactitude des termes employés en anatomie, il contribua à la création de l’Association internationale des anatomistes vétérinaires en 1957 à Freiburg et fut élu président-fondateur à l’assemblée constitutive.
-Au-delà du domaine de l’anatomie, Clément Bressou eut l’occasion de se pencher sur diverses questions impliquant la profession vétérinaire. Ainsi, il apporta sa contribution à des problèmes de pathologie médicale ou chirurgicale (13 articles), rechercha les facteurs d’amélioration des denrées d’origine animale, s’intéressa à l’épidémiologie des grandes maladies contagieuses de l’époque (16 articles) et contribua à répandre les techniques de l’insémination artificielle[1]. Enfin, dans le prolongement de ses travaux sur la vision des bovins et le comportement de bravoure des taureaux camarguais et toros de lidia, il introduisit et développa, en France, le statut de vétérinaire des corridas. Ainsi, avec Jean Marty, il fonda en août 1955, à l’occasion de la corrida des Fêtes de Dax, l’Association vétérinaire tauromachique et en fut élu président-fondateur.
-Le directeur d'Alfort
-Clément Bressou a été le directeur de l’École d’Alfort ayant assuré le plus long directorat de l’histoire de cet établissement pendant le XXe siècle. Ayant été nommé Inspecteur général des Écoles vétérinaires le 20 mars 1941, il en démissionna dès septembre 1941, à sa demande[11]. Il eut à cœur d’assurer la modernisation du cursus et de l’enseignement : réforme du concours d’entrée, développement de l’enseignement pratique, création d’enseignements (agronomie, botanique et zoologie appliqués à l’hygiène et à l’alimentation animale , économie rurale…), notamment de spécialisation en dernière année, développement de l’enseignement post-universitaire (cours de médecine vétérinaire publique, enseignement d’insémination artificielle, cours supérieur d’aviculture, cours de pathologie apicole…), développement de nouvelles méthodes pédagogiques (recours à la cinématographie). Il fut responsable de l’organisation des Journées vétérinaires d’Alfort de 1929 jusqu’à son départ en retraite. Il eut également à affronter et résoudre les multiples problèmes liés à la direction de l’École pendant la seconde guerre mondiale[1]. Et, après la guerre, à réorganiser les échanges, pour l’enseignement et la recherche, avec les facultés de divers pays étrangers, interrompus pendant quelques années.
+Au-delà du domaine de l’anatomie, Clément Bressou eut l’occasion de se pencher sur diverses questions impliquant la profession vétérinaire. Ainsi, il apporta sa contribution à des problèmes de pathologie médicale ou chirurgicale (13 articles), rechercha les facteurs d’amélioration des denrées d’origine animale, s’intéressa à l’épidémiologie des grandes maladies contagieuses de l’époque (16 articles) et contribua à répandre les techniques de l’insémination artificielle. Enfin, dans le prolongement de ses travaux sur la vision des bovins et le comportement de bravoure des taureaux camarguais et toros de lidia, il introduisit et développa, en France, le statut de vétérinaire des corridas. Ainsi, avec Jean Marty, il fonda en août 1955, à l’occasion de la corrida des Fêtes de Dax, l’Association vétérinaire tauromachique et en fut élu président-fondateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre et réalisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le directeur d'Alfort</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clément Bressou a été le directeur de l’École d’Alfort ayant assuré le plus long directorat de l’histoire de cet établissement pendant le XXe siècle. Ayant été nommé Inspecteur général des Écoles vétérinaires le 20 mars 1941, il en démissionna dès septembre 1941, à sa demande. Il eut à cœur d’assurer la modernisation du cursus et de l’enseignement : réforme du concours d’entrée, développement de l’enseignement pratique, création d’enseignements (agronomie, botanique et zoologie appliqués à l’hygiène et à l’alimentation animale , économie rurale…), notamment de spécialisation en dernière année, développement de l’enseignement post-universitaire (cours de médecine vétérinaire publique, enseignement d’insémination artificielle, cours supérieur d’aviculture, cours de pathologie apicole…), développement de nouvelles méthodes pédagogiques (recours à la cinématographie). Il fut responsable de l’organisation des Journées vétérinaires d’Alfort de 1929 jusqu’à son départ en retraite. Il eut également à affronter et résoudre les multiples problèmes liés à la direction de l’École pendant la seconde guerre mondiale. Et, après la guerre, à réorganiser les échanges, pour l’enseignement et la recherche, avec les facultés de divers pays étrangers, interrompus pendant quelques années.
 En  qualité de directeur de l’École d’Alfort, C.Bressou fut  directeur de l’Institut de médecine vétérinaire exotique, installé, à sa création, sur le site. Par la suite, il a favorisé l'autonomie et l'extension des activités de cet organisme qui devint  l’Institut d’élevage et de médecine vétérinaire des pays tropicaux. Il  contribua à la promotion de l’enseignement et de la recherche vétérinaire et zootechnique dans les  territoires de la France d’Outre-Mer, puis dans les pays d’Afrique francophone. 
 			Corps enseignant d'Alfort en 1934.
 			Inauguration de la Cité des Élèves (juin 1935) Clément Bressou au milieu, Emmanuel Leclainche, à gauche (chapeau à la main)
 			Corps enseignant d'Alfort en 1935.
-L'historien de l'anatomie et de la médecine vétérinaires
-Clément Bressou s’est également intéressé à l’histoire de l’anatomie et de la médecine vétérinaire. Cette inclination s’est traduite par diverses conférences, notamment celle effectuée dans le grand amphithéâtre de la Sorbonne, le 27 mai 1967, lors de la cérémonie commémorative du deuxième centenaire de l’École nationale vétérinaire d’Alfort. Elle l’a conduit à publier un petit livre de la collection Que sais-je ? sur l’Histoire de la médecine vétérinaire[12].
-Le naturaliste
-Anatomiste dans l’âme, Clément Bressou n’en restait pas moins un fervent naturaliste et ce fut donc tout naturellement qu’il chercha « un dérivatif aux travaux fatigants et arides de l’anatomie dans la zoologie de plein air »[13]. Devenu membre de la Société de biogéographie et de la Société nationale d’acclimatation en 1926, il se vit attribuer le poste de Secrétaire général de la  Société nationale d’acclimatation qu’il occupa de 1929 à 1935. Il fut nommé Directeur général des réserves naturelles de la Société en 1929 et contribua tout d’abord à l’organisation de la   réserve de la Camargue. Sur ce modèle, il prit une part active à la réalisation de la réserve de Néouvielle en 1931, de la  réserve de Lauzanier en 1932 et de la réserve de Port-Cros en 1945.
-Il fit partie, dès sa création en 1946, du Conseil national de protection de la nature et en présida, jusqu’en 1977, le Comité permanent. Son action y fut déterminante au moment où se créèrent enfin les Parcs nationaux de France grâce à la loi du 22 juillet 1960, texte à l’élaboration duquel il prit une part active[3]. Le rôle capital joué par C. Bressou pendant des décennies pour la protection de la nature est décrit dans un article présent sur le site de l’Association pour l’histoire de la protection de la nature et de l’environnement (AHPNE)[14].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre et réalisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'historien de l'anatomie et de la médecine vétérinaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clément Bressou s’est également intéressé à l’histoire de l’anatomie et de la médecine vétérinaire. Cette inclination s’est traduite par diverses conférences, notamment celle effectuée dans le grand amphithéâtre de la Sorbonne, le 27 mai 1967, lors de la cérémonie commémorative du deuxième centenaire de l’École nationale vétérinaire d’Alfort. Elle l’a conduit à publier un petit livre de la collection Que sais-je ? sur l’Histoire de la médecine vétérinaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre et réalisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le naturaliste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anatomiste dans l’âme, Clément Bressou n’en restait pas moins un fervent naturaliste et ce fut donc tout naturellement qu’il chercha « un dérivatif aux travaux fatigants et arides de l’anatomie dans la zoologie de plein air ». Devenu membre de la Société de biogéographie et de la Société nationale d’acclimatation en 1926, il se vit attribuer le poste de Secrétaire général de la  Société nationale d’acclimatation qu’il occupa de 1929 à 1935. Il fut nommé Directeur général des réserves naturelles de la Société en 1929 et contribua tout d’abord à l’organisation de la   réserve de la Camargue. Sur ce modèle, il prit une part active à la réalisation de la réserve de Néouvielle en 1931, de la  réserve de Lauzanier en 1932 et de la réserve de Port-Cros en 1945.
+Il fit partie, dès sa création en 1946, du Conseil national de protection de la nature et en présida, jusqu’en 1977, le Comité permanent. Son action y fut déterminante au moment où se créèrent enfin les Parcs nationaux de France grâce à la loi du 22 juillet 1960, texte à l’élaboration duquel il prit une part active. Le rôle capital joué par C. Bressou pendant des décennies pour la protection de la nature est décrit dans un article présent sur le site de l’Association pour l’histoire de la protection de la nature et de l’environnement (AHPNE).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Académies, sociétés savantes et professionnelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de sa carrière, Clément Bressou a été membre de nombreuses sociétés savantes ou professionnelles, françaises ou étrangères et en a présidé certaines : 
 Académie vétérinaire de France (président en 1942, secrétaire général de 1947à 1974),
@@ -617,66 +810,70 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>L’homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clément Bressou était incontestablement un homme d’une très vive intelligence, d’une puissance de travail difficile à égaler et d’une mémoire prodigieuse. Il fut un homme de science, à la fois homme de laboratoire et de terrain ; il fut aussi un homme d’action et l’un des plus grands représentants de la profession vétérinaire de son époque. Les multiples charges qu’il assuma ne l’écartèrent pas d’un humanisme souriant, d’une vive curiosité à l’égard de tout ce qui l’entourait et d’un enthousiasme profond pour les jeunes[1].
-Il se comportait presque en père avec ses étudiants, sachant les réprimander quand leur attitude cessait d’être responsable, parfois avec une touche de bienveillance quand elle n’était pas infondée, ou leur adressant de sincères vœux de rétablissement et les exhortant au repos s’ils étaient malades. Il était, de plus, toujours disposé à leur venir en aide[1]. Par ailleurs, C. Bressou, homme de culture, de sensibilité artistique, ne manquait pas d'inciter ses étudiants à bénéficier des multiples ressources culturelles que leur offrait la capitale.
-Organisateur, précurseur, professeur talentueux et conférencier attachant, sa retraite prise en 1957 ne le ralentit guère dans ses activités. Pour ses anciens étudiants, ses collaborateurs, ses collègues des académies et d’ailleurs, sa silhouette, sa moustache et son regard clair illuminant un visage buriné étaient devenus familiers à tous. Il semblait ne pas vieillir puisque son esprit ne changeait pas et plus personne ne s’étonnait de cette présence qui défiait les années[1].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clément Bressou était incontestablement un homme d’une très vive intelligence, d’une puissance de travail difficile à égaler et d’une mémoire prodigieuse. Il fut un homme de science, à la fois homme de laboratoire et de terrain ; il fut aussi un homme d’action et l’un des plus grands représentants de la profession vétérinaire de son époque. Les multiples charges qu’il assuma ne l’écartèrent pas d’un humanisme souriant, d’une vive curiosité à l’égard de tout ce qui l’entourait et d’un enthousiasme profond pour les jeunes.
+Il se comportait presque en père avec ses étudiants, sachant les réprimander quand leur attitude cessait d’être responsable, parfois avec une touche de bienveillance quand elle n’était pas infondée, ou leur adressant de sincères vœux de rétablissement et les exhortant au repos s’ils étaient malades. Il était, de plus, toujours disposé à leur venir en aide. Par ailleurs, C. Bressou, homme de culture, de sensibilité artistique, ne manquait pas d'inciter ses étudiants à bénéficier des multiples ressources culturelles que leur offrait la capitale.
+Organisateur, précurseur, professeur talentueux et conférencier attachant, sa retraite prise en 1957 ne le ralentit guère dans ses activités. Pour ses anciens étudiants, ses collaborateurs, ses collègues des académies et d’ailleurs, sa silhouette, sa moustache et son regard clair illuminant un visage buriné étaient devenus familiers à tous. Il semblait ne pas vieillir puisque son esprit ne changeait pas et plus personne ne s’étonnait de cette présence qui défiait les années.
 Il passa ses dernières années dans la maison qu’il avait contribué à rénover à Castillon-en-Couserans et qui lui servit de lieu d’enracinement, de paix et de ressourcement.
-Dans l'hommage posthume qui lui fut adressé, ses collègues, les professeurs P.-C. Blin et R. Lautié, écrivirent : « On vous citera en exemple dans et en dehors de la profession : par votre prestance, votre intelligence, votre culture, par la hauteur de vos idées, vous fûtes un aristocrate ; par votre humanisme, par votre goût de la connaissance et votre souci de la diffuser, vous fûtes aussi un talentueux vulgarisateur, un homme de vérité. Mais surtout vous resterez pour nous, l’homme que nous avons aimé, l’enthousiaste, l’infatigable, le généreux, celui qui, au-delà de ses multiples tâches a su, pendant près d’un demi-siècle, symboliser l’enseignement et la profession vétérinaires »[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Dans l'hommage posthume qui lui fut adressé, ses collègues, les professeurs P.-C. Blin et R. Lautié, écrivirent : « On vous citera en exemple dans et en dehors de la profession : par votre prestance, votre intelligence, votre culture, par la hauteur de vos idées, vous fûtes un aristocrate ; par votre humanisme, par votre goût de la connaissance et votre souci de la diffuser, vous fûtes aussi un talentueux vulgarisateur, un homme de vérité. Mais surtout vous resterez pour nous, l’homme que nous avons aimé, l’enthousiaste, l’infatigable, le généreux, celui qui, au-delà de ses multiples tâches a su, pendant près d’un demi-siècle, symboliser l’enseignement et la profession vétérinaires ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Clément Bressou reçut également de nombreuses distinctions françaises :
 Croix de guerre 1914-1918
@@ -699,31 +896,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Castelsarrasin porte le nom Clément Bressou.
 Un bâtiment de l'Ecole Vétérinaire d'Alfort porte son nom.
@@ -731,31 +930,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clément_Bressou</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Bressou</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Ouvrages de Clément Bressou</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Bressou C. Dissection des animaux domestiques. Chahine éd., 1927, 104 p.
 Bressou C. Anatomie appliquée. Centre de documentation universitaire, Paris, 1935, quatre cahiers de 172 p.
